--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1059124.500369478</v>
+        <v>1114932.331649294</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7087249.70013672</v>
+        <v>7093562.831905181</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.449814690419</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>252.9971752008819</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>107.6909135285077</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>193.0044997481039</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>48.80641138178195</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>283.0685741813202</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>134.6715821263128</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>96.533689030421</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>126.0907693966717</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8577999327475</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>309.2588241657135</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946034</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1619,10 +1619,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.3727203283468</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>236.0942751322865</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617052</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,13 +1850,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>418.0559443148201</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170543</v>
+        <v>160.7884964950059</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>236.0942751322861</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>71.84692347866415</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>54.66258501924938</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>52.79556056591021</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170526</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>60.78001549303731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361629</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>184.1155482733026</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3272,19 +3272,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948834</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313355</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3329,10 +3329,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3433,10 +3433,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>86.7450858004035</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3560,7 +3560,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655108</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946039</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.4767360333512</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884108</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948842</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313123</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800128</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655116</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430769</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>228.2076316946664</v>
       </c>
       <c r="U43" t="n">
-        <v>131.5141848153411</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3986,13 +3986,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948834</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112168</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>39.88277234054631</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>266.1592746401504</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.3642220164563</v>
+        <v>1200.821019354829</v>
       </c>
       <c r="C2" t="n">
-        <v>922.2621532402836</v>
+        <v>762.6785465382527</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>507.1258443151397</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>73.35109947343491</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1739.711376797684</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.549176960773</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2035.406713540084</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1627.120589839737</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064432</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.3616215761957</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>292.3616215761957</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>618.2526391103224</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.99530944888</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1566.986908251943</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1566.986908251943</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.553907505048</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="V4" t="n">
-        <v>1001.598399375479</v>
+        <v>1987.749529383135</v>
       </c>
       <c r="W4" t="n">
-        <v>729.5719949617703</v>
+        <v>1792.795489233535</v>
       </c>
       <c r="X4" t="n">
-        <v>484.1802402951828</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.1802402951828</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.880354348248</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.4105542393174</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>774.8488427225424</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>608.9708499240651</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1411.255577372013</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1139.229172958305</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1139.229172958305</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1139.229172958305</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1433.557826826175</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.455758050002</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>963.5459732244462</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>866.0371964260412</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>438.169766835249</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105271</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105271</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105271</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105271</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509624</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1382.132025509624</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1837.18472680872</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859469</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1475.164772310906</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>1460.062712930621</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y8" t="n">
-        <v>1455.816993270678</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>672.7335162447889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>672.7335162447889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.7987047627944</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>383.2369932460194</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>383.2369932460194</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967566</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851284</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851284</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.1100751943383</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>853.1627764934348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651868</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090968</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1551.990990691647</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1551.990990691647</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1265.035482562078</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>993.0090781483691</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>747.6173234817816</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>747.6173234817816</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.87917085155</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034974</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209418</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>776.1847387769212</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>374.7869074001846</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,19 +5048,19 @@
         <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2523.388791302762</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2523.388791302762</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112634</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457494</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036805</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2677.839094654636</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2399.406093907741</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243222</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162926</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>2034.581622478952</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1598.671837653397</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847296</v>
+        <v>1164.897092811692</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939376</v>
+        <v>737.0296632208997</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>335.6318318441636</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,16 +5285,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>3028.309292652057</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3028.309292652057</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>4008.488959222363</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>806.2298140987281</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>633.668102581953</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>467.7901097834756</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>298.0321060342128</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>121.3250519959689</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177151</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.87917085155</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2073.736698034974</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1637.826913209419</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5519,13 +5519,13 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
         <v>3292.836108510712</v>
@@ -5546,19 +5546,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457494</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036805</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2938.178741336458</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987281</v>
+        <v>944.0533615061025</v>
       </c>
       <c r="C19" t="n">
-        <v>633.668102581953</v>
+        <v>771.4916499893275</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834757</v>
+        <v>605.6136571908501</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342129</v>
+        <v>435.8556534415872</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959691</v>
+        <v>259.1485994033434</v>
       </c>
       <c r="G19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583903</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503607</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177151</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2472.724095295529</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2034.581622478952</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1598.671837653396</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1164.897092811691</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>737.0296632208992</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>335.6318318441631</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239596</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U20" t="n">
-        <v>4493.924657556612</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>4131.307707490439</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3726.452252901472</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3307.309789480783</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
         <v>439.0343056935313</v>
@@ -5944,13 +5944,13 @@
         <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
         <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
         <v>1139.050632477034</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,31 +6063,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1660.646436797299</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2642.287896536275</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2396.40845011473</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2093.658967439508</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3219.389950875955</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4199.569617446262</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1068.769857140659</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C28" t="n">
-        <v>896.2081456238835</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181458</v>
+        <v>303.5569696238772</v>
       </c>
       <c r="F28" t="n">
-        <v>496.414238779902</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1733.399901212125</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1488.008146545538</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1260.588475859646</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="29">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883922</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716172</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731399</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238771</v>
+        <v>367.6278435343482</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050032</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="32">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2373.703780185411</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2095.270779438516</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651787</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009656</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,40 +6947,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7014,22 +7014,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1003.573296407379</v>
+        <v>927.067776683164</v>
       </c>
       <c r="C37" t="n">
-        <v>831.0115848906038</v>
+        <v>754.5060651663889</v>
       </c>
       <c r="D37" t="n">
-        <v>665.1335920921265</v>
+        <v>588.6280723679116</v>
       </c>
       <c r="E37" t="n">
-        <v>495.3755883428638</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G37" t="n">
-        <v>242.163014580405</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7093,7 +7093,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
         <v>463.598980006605</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2150.679733297908</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1591.69782075463</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7163,7 +7163,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7230,16 +7230,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7251,22 +7251,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477105</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
         <v>463.598980006605</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.416826573035</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7397,13 +7397,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7421,40 +7421,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7488,22 +7488,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.31900088266</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365885</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674082</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181455</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799018</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057295</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961041</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7597,22 +7597,22 @@
         <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755404</v>
+        <v>2307.748500889406</v>
       </c>
       <c r="U43" t="n">
-        <v>2159.539202830817</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V43" t="n">
-        <v>1872.583694701248</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.557290287539</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.557290287539</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601647</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651787</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7649,49 +7649,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688151</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321674</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532225</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968672</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.042013538979</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538979</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538979</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7704,16 +7704,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7725,22 +7725,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
         <v>463.598980006605</v>
@@ -7819,37 +7819,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2657.217000252137</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T46" t="n">
-        <v>2411.337553830592</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U46" t="n">
-        <v>2132.904553083697</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.949044954127</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>593.6791302517564</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>115.8308884868254</v>
+        <v>297.3605050393941</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>130.0063230223085</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>1.426309209012288</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,13 +8614,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>50.57078623409302</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>777.2195123312636</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>309.6062697457101</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>105.9132979316059</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465005</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.38105307846837</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>49.7319563997982</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627258</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.14457787892941</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>11.3810530784677</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627252</v>
+        <v>3.14686572942469</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>50.14457787892982</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>184.7831561774891</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>102.9863699957339</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>114.159968004824</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.159968004824</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>63.43016517136701</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.30510368402673</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>88.19489769745783</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.66873794568161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25837,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.21302026266283</v>
       </c>
       <c r="U43" t="n">
-        <v>144.1344859240845</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>117.766182674437</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>3.146865729420917</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>622701.564469321</v>
+        <v>624645.4174996585</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>622701.564469321</v>
+        <v>625195.8648808545</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623064.1254256945</v>
+        <v>625195.8648808545</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594247.1846869076</v>
+        <v>594247.1846869075</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594247.1846869075</v>
+        <v>594247.1846869073</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619325.0949376653</v>
+        <v>619325.094937665</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619325.094937665</v>
+        <v>619325.0949376652</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619325.0949376652</v>
+        <v>619325.0949376653</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619325.0949376652</v>
+        <v>619325.094937665</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619325.0949376653</v>
+        <v>619325.0949376652</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619325.0949376653</v>
+        <v>619325.0949376652</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619325.0949376652</v>
+        <v>619325.0949376653</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="C2" t="n">
         <v>321688.3919342451</v>
@@ -26326,7 +26326,7 @@
         <v>303314.3387830058</v>
       </c>
       <c r="G2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830057</v>
       </c>
       <c r="H2" t="n">
         <v>303314.3387830058</v>
@@ -26335,10 +26335,10 @@
         <v>316114.5504824112</v>
       </c>
       <c r="J2" t="n">
+        <v>316114.5504824113</v>
+      </c>
+      <c r="K2" t="n">
         <v>316114.5504824112</v>
-      </c>
-      <c r="K2" t="n">
-        <v>316114.5504824113</v>
       </c>
       <c r="L2" t="n">
         <v>316114.5504824112</v>
@@ -26350,7 +26350,7 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="P2" t="n">
         <v>316114.5504824113</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.293752027</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>133864.3835971965</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414874</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049267</v>
+        <v>14245.20557049268</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049268</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.2055704927</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049268</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764752</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55227.93672779819</v>
+        <v>-88837.38442499615</v>
       </c>
       <c r="C6" t="n">
-        <v>86963.36393191176</v>
+        <v>108004.4697734453</v>
       </c>
       <c r="D6" t="n">
-        <v>81560.55157228478</v>
+        <v>125345.0141473521</v>
       </c>
       <c r="E6" t="n">
-        <v>-7672.681387317018</v>
+        <v>54314.97859979864</v>
       </c>
       <c r="F6" t="n">
-        <v>216126.6123647099</v>
+        <v>216050.0538099131</v>
       </c>
       <c r="G6" t="n">
-        <v>216126.61236471</v>
+        <v>216050.053809913</v>
       </c>
       <c r="H6" t="n">
-        <v>216126.6123647099</v>
+        <v>216050.0538099131</v>
       </c>
       <c r="I6" t="n">
-        <v>205786.3906732865</v>
+        <v>205763.1663339039</v>
       </c>
       <c r="J6" t="n">
-        <v>113136.6409611359</v>
+        <v>63520.05248113034</v>
       </c>
       <c r="K6" t="n">
-        <v>224151.1063061261</v>
+        <v>210313.8733988981</v>
       </c>
       <c r="L6" t="n">
-        <v>215203.4952176159</v>
+        <v>224127.8819667434</v>
       </c>
       <c r="M6" t="n">
-        <v>37360.11969565893</v>
+        <v>89137.93735374002</v>
       </c>
       <c r="N6" t="n">
-        <v>224151.1063061262</v>
+        <v>224127.8819667435</v>
       </c>
       <c r="O6" t="n">
-        <v>224151.1063061261</v>
+        <v>224127.8819667434</v>
       </c>
       <c r="P6" t="n">
-        <v>224151.1063061262</v>
+        <v>224127.8819667435</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825284</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.5867600896397</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>178.553511776418</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>49.95804148647559</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>76.3016406214675</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>382.7442755955179</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>185.5052794208647</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.017378866953607</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>287.3649926537458</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>332.9033083628668</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28059,13 +28059,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>117.3298825606576</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30040,19 +30040,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.205507560071152e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30706,13 +30706,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>593.6791302517564</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>115.8308884868254</v>
+        <v>297.3605050393941</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>130.0063230223085</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>1.426309209012288</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>50.57078623409302</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,13 +35416,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>777.2195123312636</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>592.8367376838246</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,7 +35887,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>309.6062697457101</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>105.9132979316059</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,13 +36607,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908075</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38017,28 +38017,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465005</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512979</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
